--- a/Near MPG Game Parameter LP /RebuttalSims/ExcelFigs.xlsx
+++ b/Near MPG Game Parameter LP /RebuttalSims/ExcelFigs.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinmaymaheshwari/Desktop/Codes/Near MPG Rebuttal/markov_alpha_potential_game/Near MPG Game Parameter LP /RebuttalSims/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3A2DAE-862E-4246-BE3F-68692B891EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545C91FC-08C3-C34A-BC80-6E1A692C4B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="780" windowWidth="34560" windowHeight="20100" activeTab="2" xr2:uid="{C2F631E0-E009-624D-937B-575BE860E780}"/>
+    <workbookView xWindow="3840" yWindow="500" windowWidth="34560" windowHeight="19500" activeTab="3" xr2:uid="{C2F631E0-E009-624D-937B-575BE860E780}"/>
   </bookViews>
   <sheets>
     <sheet name="Dependence on Epsilon" sheetId="1" r:id="rId1"/>
     <sheet name="Variation with Discount Factor" sheetId="2" r:id="rId2"/>
     <sheet name="Variation With Number of Player" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>epsilon</t>
   </si>
@@ -62,6 +63,12 @@
   </si>
   <si>
     <t xml:space="preserve">epsilon </t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nash regret </t>
   </si>
 </sst>
 </file>
@@ -932,10 +939,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Variation With Number of Player'!$A$2:$A$8</c:f>
+              <c:f>'Variation With Number of Player'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -962,10 +969,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Variation With Number of Player'!$B$2:$B$8</c:f>
+              <c:f>'Variation With Number of Player'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
@@ -1239,6 +1246,353 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.999999999999915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7653-AF44-83F8-E38B94E2EF2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="836493104"/>
+        <c:axId val="836679728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="836493104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836679728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="836679728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="836493104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1359,6 +1713,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2392,6 +2786,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3010,6 +3920,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE5E90F-373D-59C0-9A14-D5D8797FB60E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9733C8A-0887-8D55-F767-E63ACD3DBF7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3590,10 +4541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43055B2-9B0B-4B44-96A9-C0D4F5889AF3}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3674,14 +4625,127 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1870D695-0485-F64F-AEC1-2C664CF94759}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>0.71</v>
+      </c>
+      <c r="C2">
+        <f>1/(1-A2)</f>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">1/(1-A3)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>1.31</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>2.44</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>9</v>
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>10</v>
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>10.000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>0.99</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>99.999999999999915</v>
       </c>
     </row>
   </sheetData>

--- a/Near MPG Game Parameter LP /RebuttalSims/ExcelFigs.xlsx
+++ b/Near MPG Game Parameter LP /RebuttalSims/ExcelFigs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinmaymaheshwari/Desktop/Codes/Near MPG Rebuttal/markov_alpha_potential_game/Near MPG Game Parameter LP /RebuttalSims/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545C91FC-08C3-C34A-BC80-6E1A692C4B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE8251B-DF0E-9549-8FDB-01EF5E0BD0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="500" windowWidth="34560" windowHeight="19500" activeTab="3" xr2:uid="{C2F631E0-E009-624D-937B-575BE860E780}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19500" activeTab="3" xr2:uid="{C2F631E0-E009-624D-937B-575BE860E780}"/>
   </bookViews>
   <sheets>
     <sheet name="Dependence on Epsilon" sheetId="1" r:id="rId1"/>
@@ -1246,353 +1246,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.1111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99.999999999999915</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7653-AF44-83F8-E38B94E2EF2D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="836493104"/>
-        <c:axId val="836679728"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="836493104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="836679728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="836679728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="836493104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1713,46 +1366,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2786,522 +2399,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3920,47 +3017,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE5E90F-373D-59C0-9A14-D5D8797FB60E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9733C8A-0887-8D55-F767-E63ACD3DBF7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4636,7 +3692,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4734,6 +3790,9 @@
       <c r="A10">
         <v>0.9</v>
       </c>
+      <c r="B10">
+        <v>7.12</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>10.000000000000002</v>
@@ -4743,6 +3802,9 @@
       <c r="A11">
         <v>0.99</v>
       </c>
+      <c r="B11">
+        <v>41.85</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>99.999999999999915</v>
@@ -4750,6 +3812,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>